--- a/data/trans_dic/P1424_2016_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1424_2016_2023-Clase-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.01623009782772578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.063620222456647</v>
+        <v>0.06362022245664699</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.01703348221614134</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006928189005138861</v>
+        <v>0.00693612227639336</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01893421952369793</v>
+        <v>0.01851574451777982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.005412523706793237</v>
+        <v>0.005562051438957901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04591765506967931</v>
+        <v>0.0475816998399719</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009428695466863918</v>
+        <v>0.009462304801902983</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03513252102520411</v>
+        <v>0.0359222555946959</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03543827494228621</v>
+        <v>0.03676653855552074</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04967174140743378</v>
+        <v>0.05253204124468407</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03511369156246808</v>
+        <v>0.03354525915189041</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08599598703828105</v>
+        <v>0.08753436230727291</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02926957774795341</v>
+        <v>0.02863289684541052</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.06150302046461321</v>
+        <v>0.06089092610443904</v>
       </c>
     </row>
     <row r="7">
@@ -694,19 +694,19 @@
         <v>0.01761604666397602</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.04621809950999191</v>
+        <v>0.04621809950999192</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.03406779870934577</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.08230781247358354</v>
+        <v>0.08230781247358357</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02578755480646364</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.06305318924932671</v>
+        <v>0.06305318924932672</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005911996607698604</v>
+        <v>0.007515468888109133</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.0301843732142308</v>
+        <v>0.02863566612267371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01824249961985158</v>
+        <v>0.01790740337514595</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0595924287614216</v>
+        <v>0.06074506504312743</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01497560800044869</v>
+        <v>0.01610395892970781</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04957917985751487</v>
+        <v>0.0503665649586191</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03482436534242088</v>
+        <v>0.03499750350758869</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06943914736244214</v>
+        <v>0.06771864784826888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.06374816864256228</v>
+        <v>0.0589037062212315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1108711617061883</v>
+        <v>0.1123888410061601</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04314734438734701</v>
+        <v>0.04176322646998631</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08035913265244557</v>
+        <v>0.08060775215616972</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.03328683300652095</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.06665087492663155</v>
+        <v>0.06665087492663153</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0132042083845552</v>
+        <v>0.01273734570977105</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03270307920348785</v>
+        <v>0.03350821787198781</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03045989632528667</v>
+        <v>0.03060879750085014</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07253472375130347</v>
+        <v>0.07417513901722128</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02204303075713012</v>
+        <v>0.02191096091416837</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05156562353769203</v>
+        <v>0.05035988992044698</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03971963784417282</v>
+        <v>0.04064144440751997</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07637855776734587</v>
+        <v>0.07555798889503508</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1143657290369825</v>
+        <v>0.1127775860246843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1429050666557893</v>
+        <v>0.1428055972255936</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04882491490757133</v>
+        <v>0.04919621268414834</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.08618120406228263</v>
+        <v>0.08616621028821891</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.03658193089615649</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06441135796353545</v>
+        <v>0.06441135796353546</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01221330395238713</v>
+        <v>0.01175688007251965</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03257331295721632</v>
+        <v>0.03205030302662101</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0475294113549667</v>
+        <v>0.04600225085092906</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07677263247211778</v>
+        <v>0.07686771272956085</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02910634960170431</v>
+        <v>0.02833408485432609</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05531239284285698</v>
+        <v>0.055151355677764</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02892862150411916</v>
+        <v>0.02913292473773267</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05654813673390537</v>
+        <v>0.05667959552637862</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08089769186791866</v>
+        <v>0.08106188697783615</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1093049696043499</v>
+        <v>0.1118640264909352</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04709459310733791</v>
+        <v>0.04572838010582354</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.07471635163640691</v>
+        <v>0.07513673147803576</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.02101958365418102</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.03967372641052542</v>
+        <v>0.03967372641052541</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1068542259144743</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01247448170381891</v>
+        <v>0.01156064156713122</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02644743727943575</v>
+        <v>0.02559834939048445</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08555593194044925</v>
+        <v>0.08547956199182261</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09492401251156035</v>
+        <v>0.09639107553882134</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05587588207601504</v>
+        <v>0.05510771149529811</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0712720443085415</v>
+        <v>0.07090615714173425</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03565376927095119</v>
+        <v>0.03530329214094322</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05988784969707807</v>
+        <v>0.05885499593154547</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.131165607162716</v>
+        <v>0.1323169767983711</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1312752303522372</v>
+        <v>0.1294490345328329</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08264405093032089</v>
+        <v>0.08279930699283355</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09521312354554864</v>
+        <v>0.09471764412827838</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.06885558560711717</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.09095971259974002</v>
+        <v>0.09095971259974001</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.05648008633074079</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.003196704788045727</v>
+        <v>0.003203890361928766</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01570821730161131</v>
+        <v>0.01496179915988223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.0548114123491344</v>
+        <v>0.05439463220485351</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.074617979616935</v>
+        <v>0.07153902868680388</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04524674304459338</v>
+        <v>0.04465682520204358</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.0657060486079353</v>
+        <v>0.06621171450394307</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02954426532258322</v>
+        <v>0.02621999844159847</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09852619473654005</v>
+        <v>0.09373553646909603</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08576743476026849</v>
+        <v>0.08768904334719753</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1113936024033611</v>
+        <v>0.1113435591430583</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07040869837036352</v>
+        <v>0.07076279297174379</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09883744376862254</v>
+        <v>0.1023110115267657</v>
       </c>
     </row>
     <row r="22">
@@ -1110,13 +1110,13 @@
         <v>0.06577899482081076</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0920029209548979</v>
+        <v>0.09200292095489788</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04293300750435176</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.06784074452652479</v>
+        <v>0.06784074452652478</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01501058724420939</v>
+        <v>0.01483409823935972</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03574467430471832</v>
+        <v>0.03600164309429346</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0567603680966337</v>
+        <v>0.05732516518314163</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.08408620585314669</v>
+        <v>0.08365218318799199</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03827527191391285</v>
+        <v>0.03843823832319921</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06249120530484982</v>
+        <v>0.06282018299640554</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02475293217853045</v>
+        <v>0.0239795692301234</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05009273346332866</v>
+        <v>0.05002373641981073</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07455886209947263</v>
+        <v>0.07470829875924714</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09975177830445035</v>
+        <v>0.1011972987557079</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04854729680976884</v>
+        <v>0.04793065857574569</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07373597577496963</v>
+        <v>0.07368514206637188</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>10364</v>
+        <v>10135</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1878</v>
+        <v>1930</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>22427</v>
+        <v>23239</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7318</v>
+        <v>7344</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>36390</v>
+        <v>37208</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15206</v>
+        <v>15776</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>27190</v>
+        <v>28755</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>12186</v>
+        <v>11642</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>42001</v>
+        <v>42753</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22717</v>
+        <v>22223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>63705</v>
+        <v>63071</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2230</v>
+        <v>2835</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14585</v>
+        <v>13837</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6791</v>
+        <v>6666</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>25177</v>
+        <v>25664</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11224</v>
+        <v>12070</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44904</v>
+        <v>45617</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13137</v>
+        <v>13202</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>33554</v>
+        <v>32722</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>23732</v>
+        <v>21928</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>46842</v>
+        <v>47483</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>32339</v>
+        <v>31302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72782</v>
+        <v>73007</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6891</v>
+        <v>6648</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>15395</v>
+        <v>15774</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>5060</v>
+        <v>5085</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>13600</v>
+        <v>13908</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15166</v>
+        <v>15076</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>33943</v>
+        <v>33149</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>20730</v>
+        <v>21211</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>35955</v>
+        <v>35568</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18999</v>
+        <v>18735</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>26794</v>
+        <v>26776</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>33593</v>
+        <v>33849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>56728</v>
+        <v>56718</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14041</v>
+        <v>13516</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36868</v>
+        <v>36276</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>39253</v>
+        <v>37992</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>66058</v>
+        <v>66140</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>57500</v>
+        <v>55974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>110198</v>
+        <v>109877</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>33257</v>
+        <v>33492</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>64004</v>
+        <v>64152</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>66811</v>
+        <v>66947</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>94051</v>
+        <v>96253</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>93036</v>
+        <v>90337</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>148856</v>
+        <v>149694</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7743</v>
+        <v>7176</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>14995</v>
+        <v>14514</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>63161</v>
+        <v>63105</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>78799</v>
+        <v>80017</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>75933</v>
+        <v>74889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>99574</v>
+        <v>99063</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22131</v>
+        <v>21913</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>33955</v>
+        <v>33369</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>96832</v>
+        <v>97682</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>108975</v>
+        <v>107459</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>112309</v>
+        <v>112520</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>133023</v>
+        <v>132330</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3726</v>
+        <v>3549</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>59307</v>
+        <v>58856</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>62893</v>
+        <v>60298</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>61950</v>
+        <v>61143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>70969</v>
+        <v>71515</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>8483</v>
+        <v>7529</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>23373</v>
+        <v>22237</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>92803</v>
+        <v>94882</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>93890</v>
+        <v>93848</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>96401</v>
+        <v>96886</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>106754</v>
+        <v>110506</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50822</v>
+        <v>50224</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>122868</v>
+        <v>123752</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>200455</v>
+        <v>202449</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>305388</v>
+        <v>303811</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>264762</v>
+        <v>265890</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>441765</v>
+        <v>444090</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>83807</v>
+        <v>81188</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>172188</v>
+        <v>171951</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>263312</v>
+        <v>263840</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>362283</v>
+        <v>367532</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>335817</v>
+        <v>331552</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>521257</v>
+        <v>520897</v>
       </c>
     </row>
     <row r="32">
